--- a/Escritorio/Data/Proveedores.xlsx
+++ b/Escritorio/Data/Proveedores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Equipo\Proyectos\Almacen Rosaly\Almacen-Rosaly\Escritorio\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CEBACEA-DD98-45AF-9E3B-AFB9875860EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0513BEC7-7E6F-4D78-B440-91ABF959A910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3525" yWindow="2880" windowWidth="18450" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="270" yWindow="3990" windowWidth="18450" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -392,10 +392,15 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -427,5 +432,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Escritorio/Data/Proveedores.xlsx
+++ b/Escritorio/Data/Proveedores.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Equipo\Proyectos\Almacen Rosaly\Almacen-Rosaly\Escritorio\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0513BEC7-7E6F-4D78-B440-91ABF959A910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{851BA8F3-8360-4F19-8BE1-D89DCABF4CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="3990" windowWidth="18450" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8145" yWindow="3390" windowWidth="18450" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Nombre</t>
   </si>
@@ -39,16 +48,13 @@
     <t>Codigo</t>
   </si>
   <si>
-    <t>S0001</t>
-  </si>
-  <si>
-    <t>Mercado Mayoritario</t>
-  </si>
-  <si>
-    <t>987 654 321</t>
-  </si>
-  <si>
     <t>Lima</t>
+  </si>
+  <si>
+    <t>Primax Gas Peru</t>
+  </si>
+  <si>
+    <t>L1001</t>
   </si>
 </sst>
 </file>
@@ -67,6 +73,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -392,7 +399,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -418,16 +425,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
